--- a/用例数据/沪A/上海配股配债/T日权益发放/清算结果.xlsx
+++ b/用例数据/沪A/上海配股配债/T日权益发放/清算结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="regrights" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="tradinglog" sheetId="3" r:id="rId3"/>
     <sheet name="stklist" sheetId="4" r:id="rId4"/>
     <sheet name="tradinglog2021" sheetId="5" r:id="rId5"/>
+    <sheet name="stkcheckin" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="360">
   <si>
     <t>1</t>
   </si>
@@ -1013,6 +1014,99 @@
   <si>
     <t>005_003_004</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGHTSSTKID</t>
+  </si>
+  <si>
+    <t>PROCESSFLAG</t>
+  </si>
+  <si>
+    <t>CAPITALBONUS</t>
+  </si>
+  <si>
+    <t>SHAREPROJECT</t>
+  </si>
+  <si>
+    <t>BONUSPROJECT</t>
+  </si>
+  <si>
+    <t>RIGHTSOFFDATE</t>
+  </si>
+  <si>
+    <t>RATIONBEGINPAYDATE</t>
+  </si>
+  <si>
+    <t>RATIONENDPAYDATE</t>
+  </si>
+  <si>
+    <t>RATIONSHARELISTDATE</t>
+  </si>
+  <si>
+    <t>RATIONSHAREPRICE</t>
+  </si>
+  <si>
+    <t>BONUSRECEIVEDDATE</t>
+  </si>
+  <si>
+    <t>BONDINTEREST</t>
+  </si>
+  <si>
+    <t>CAPITALBONUSAFTERTAX</t>
+  </si>
+  <si>
+    <t>BONUSSHAREQTY</t>
+  </si>
+  <si>
+    <t>FUNDSHAREQTY</t>
+  </si>
+  <si>
+    <t>RATIONSHAREQTY</t>
+  </si>
+  <si>
+    <t>KEEPTODATE</t>
+  </si>
+  <si>
+    <t>NETAMT</t>
+  </si>
+  <si>
+    <t>PAYRATE</t>
+  </si>
+  <si>
+    <t>20221007000000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0.00000</t>
+  </si>
+  <si>
+    <t>5.00000000</t>
+  </si>
+  <si>
+    <t>20221121000000</t>
+  </si>
+  <si>
+    <t>20221007203441</t>
+  </si>
+  <si>
+    <t>30052226</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>30052225</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>30052508</t>
+  </si>
+  <si>
+    <t>30052507</t>
   </si>
 </sst>
 </file>
@@ -1368,22 +1462,22 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1427,7 +1521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1471,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1515,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1559,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1603,12 +1697,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,73 +1712,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM11"/>
+  <dimension ref="A1:BQ14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.875" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,7 +1975,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2021,7 +2115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2161,7 +2255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2301,7 +2395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2441,7 +2535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2581,7 +2675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2721,10 +2815,605 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ10" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BN11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BN12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BN13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2739,136 +3428,136 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.625" bestFit="1" customWidth="1"/>
     <col min="107" max="108" width="15" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.5" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="15" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.5" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="15" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.625" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="15" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -3275,7 +3964,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>211</v>
       </c>
@@ -3592,7 +4281,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>232</v>
       </c>
@@ -3909,7 +4598,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>235</v>
       </c>
@@ -4226,7 +4915,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>238</v>
       </c>
@@ -4543,8 +5232,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4559,84 +5248,84 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.875" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.25" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="15" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.375" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="26" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -4887,7 +5576,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5138,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5389,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5640,7 +6329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -5891,8 +6580,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5903,140 +6592,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.625" bestFit="1" customWidth="1"/>
     <col min="107" max="108" width="15" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.5" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="15" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.5" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="15" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.625" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="15" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -6443,7 +7132,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>211</v>
       </c>
@@ -6760,7 +7449,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>232</v>
       </c>
@@ -7077,7 +7766,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>235</v>
       </c>
@@ -7394,7 +8083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>238</v>
       </c>
@@ -7711,12 +8400,219 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/用例数据/沪A/上海配股配债/T日权益发放/清算结果.xlsx
+++ b/用例数据/沪A/上海配股配债/T日权益发放/清算结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="regrights" sheetId="1" r:id="rId1"/>
@@ -1459,7 +1459,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1714,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+    <sheetView topLeftCell="AY1" workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
@@ -5245,7 +5245,7 @@
   <dimension ref="A1:CE7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8414,8 +8414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/用例数据/沪A/上海配股配债/T日权益发放/清算结果.xlsx
+++ b/用例数据/沪A/上海配股配债/T日权益发放/清算结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="regrights" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="366">
   <si>
     <t>1</t>
   </si>
@@ -654,15 +654,9 @@
     <t>SECONDOTHERFEE</t>
   </si>
   <si>
-    <t>100015</t>
-  </si>
-  <si>
     <t>005_003_004</t>
   </si>
   <si>
-    <t>20210121165946</t>
-  </si>
-  <si>
     <t>焦振鹏IPO主股东</t>
   </si>
   <si>
@@ -684,27 +678,15 @@
     <t>A9</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>99998</t>
   </si>
   <si>
-    <t>324411</t>
-  </si>
-  <si>
-    <t>SU1O</t>
-  </si>
-  <si>
     <t>99999</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>000024878383</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -717,30 +699,12 @@
     <t>0.000000</t>
   </si>
   <si>
-    <t>100016</t>
-  </si>
-  <si>
     <t>焦振鹏IPO虚拟股东</t>
   </si>
   <si>
-    <t>000024878384</t>
-  </si>
-  <si>
-    <t>100017</t>
-  </si>
-  <si>
     <t>太证配股</t>
   </si>
   <si>
-    <t>000024878385</t>
-  </si>
-  <si>
-    <t>100018</t>
-  </si>
-  <si>
-    <t>000024878386</t>
-  </si>
-  <si>
     <t>EXCHTRUSTEESHIPQTY</t>
   </si>
   <si>
@@ -954,12 +918,6 @@
     <t>太平洋</t>
   </si>
   <si>
-    <t>4140000.000</t>
-  </si>
-  <si>
-    <t>4.140</t>
-  </si>
-  <si>
     <t>1.000000</t>
   </si>
   <si>
@@ -967,18 +925,6 @@
   </si>
   <si>
     <t>中金黄金</t>
-  </si>
-  <si>
-    <t>4765000.000</t>
-  </si>
-  <si>
-    <t>9.530</t>
-  </si>
-  <si>
-    <t>14295000.000</t>
-  </si>
-  <si>
-    <t>3976884.000</t>
   </si>
   <si>
     <t>Y</t>
@@ -1012,10 +958,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>005_003_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RIGHTSSTKID</t>
   </si>
   <si>
@@ -1082,12 +1024,6 @@
     <t>0.00000</t>
   </si>
   <si>
-    <t>5.00000000</t>
-  </si>
-  <si>
-    <t>20221121000000</t>
-  </si>
-  <si>
     <t>20221007203441</t>
   </si>
   <si>
@@ -1107,6 +1043,87 @@
   </si>
   <si>
     <t>30052507</t>
+  </si>
+  <si>
+    <t>30052318</t>
+  </si>
+  <si>
+    <t>20221201235959</t>
+  </si>
+  <si>
+    <t>20221202001521</t>
+  </si>
+  <si>
+    <t>20221201000000</t>
+  </si>
+  <si>
+    <t>1000000000.000</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>000007061049</t>
+  </si>
+  <si>
+    <t>30052319</t>
+  </si>
+  <si>
+    <t>998193160.000</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>000007061050</t>
+  </si>
+  <si>
+    <t>30052320</t>
+  </si>
+  <si>
+    <t>000007061051</t>
+  </si>
+  <si>
+    <t>30052321</t>
+  </si>
+  <si>
+    <t>000007061052</t>
+  </si>
+  <si>
+    <t>4765000.0000</t>
+  </si>
+  <si>
+    <t>9.5300</t>
+  </si>
+  <si>
+    <t>4140000.0000</t>
+  </si>
+  <si>
+    <t>4.1400</t>
+  </si>
+  <si>
+    <t>14295000.0000</t>
+  </si>
+  <si>
+    <t>3976884.0000</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>3.00000000</t>
+  </si>
+  <si>
+    <t>20230115000000</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>4.00000000</t>
   </si>
 </sst>
 </file>
@@ -1462,27 +1479,27 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -1509,7 +1526,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>30</v>
@@ -1521,12 +1538,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1535,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -1565,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1596,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -1609,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1626,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -1653,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1697,12 +1714,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1718,67 +1735,67 @@
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1975,7 +1992,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2115,7 +2132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2255,7 +2272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2395,7 +2412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2535,7 +2552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2675,7 +2692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2815,14 +2832,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -2861,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>1</v>
@@ -2879,7 +2896,7 @@
         <v>94</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>100</v>
@@ -2963,15 +2980,15 @@
         <v>1</v>
       </c>
       <c r="BQ10" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -3010,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>1</v>
@@ -3028,7 +3045,7 @@
         <v>94</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="AE11" s="1" t="s">
         <v>100</v>
@@ -3112,15 +3129,15 @@
         <v>1</v>
       </c>
       <c r="BQ11" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
@@ -3159,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>1</v>
@@ -3177,7 +3194,7 @@
         <v>94</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="AE12" s="1" t="s">
         <v>100</v>
@@ -3261,15 +3278,15 @@
         <v>0</v>
       </c>
       <c r="BQ12" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
@@ -3308,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>1</v>
@@ -3326,7 +3343,7 @@
         <v>94</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="AE13" s="1" t="s">
         <v>100</v>
@@ -3410,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="BQ13" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3422,142 +3439,142 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EE7"/>
+  <dimension ref="A1:EI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="107" max="108" width="15" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="15" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="15" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="15" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -3964,21 +3981,21 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -3987,10 +4004,10 @@
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>4</v>
@@ -3999,19 +4016,19 @@
         <v>5</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>2</v>
@@ -4026,7 +4043,7 @@
         <v>96</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>8</v>
+        <v>342</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>94</v>
@@ -4035,7 +4052,7 @@
         <v>94</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>9</v>
+        <v>343</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>6</v>
@@ -4080,25 +4097,25 @@
         <v>94</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>224</v>
+        <v>344</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>101</v>
@@ -4107,7 +4124,7 @@
         <v>94</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>1</v>
@@ -4140,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>102</v>
@@ -4170,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>94</v>
@@ -4188,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>102</v>
@@ -4197,19 +4214,19 @@
         <v>102</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>94</v>
@@ -4218,10 +4235,10 @@
         <v>94</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="DG2" s="1" t="s">
         <v>102</v>
@@ -4280,22 +4297,28 @@
       <c r="EE2" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EG2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="3" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>346</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -4304,10 +4327,10 @@
         <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>12</v>
@@ -4316,19 +4339,19 @@
         <v>5</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>2</v>
@@ -4343,7 +4366,7 @@
         <v>96</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>8</v>
+        <v>342</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>94</v>
@@ -4352,7 +4375,7 @@
         <v>94</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>13</v>
@@ -4397,25 +4420,25 @@
         <v>94</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>224</v>
+        <v>348</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>101</v>
@@ -4424,7 +4447,7 @@
         <v>94</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>1</v>
@@ -4457,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>102</v>
@@ -4487,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>94</v>
@@ -4505,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>234</v>
+        <v>349</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>102</v>
@@ -4514,19 +4537,19 @@
         <v>102</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="DC3" s="1" t="s">
         <v>94</v>
@@ -4535,10 +4558,10 @@
         <v>94</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="DG3" s="1" t="s">
         <v>102</v>
@@ -4597,22 +4620,28 @@
       <c r="EE3" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EG3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="4" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
@@ -4621,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>4</v>
@@ -4633,19 +4662,19 @@
         <v>15</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>2</v>
@@ -4660,7 +4689,7 @@
         <v>105</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>8</v>
+        <v>342</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>94</v>
@@ -4669,7 +4698,7 @@
         <v>94</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>9</v>
+        <v>343</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>16</v>
@@ -4714,25 +4743,25 @@
         <v>94</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>224</v>
+        <v>344</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>101</v>
@@ -4741,7 +4770,7 @@
         <v>94</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>1</v>
@@ -4774,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>102</v>
@@ -4804,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>94</v>
@@ -4822,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>237</v>
+        <v>351</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>102</v>
@@ -4831,19 +4860,19 @@
         <v>102</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="DC4" s="1" t="s">
         <v>94</v>
@@ -4852,10 +4881,10 @@
         <v>94</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="DF4" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="DG4" s="1" t="s">
         <v>102</v>
@@ -4914,22 +4943,28 @@
       <c r="EE4" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EG4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI4" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="5" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>238</v>
+        <v>352</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
@@ -4938,10 +4973,10 @@
         <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>12</v>
@@ -4950,19 +4985,19 @@
         <v>15</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>2</v>
@@ -4977,7 +5012,7 @@
         <v>105</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>8</v>
+        <v>342</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>94</v>
@@ -4986,7 +5021,7 @@
         <v>94</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>18</v>
@@ -5031,25 +5066,25 @@
         <v>94</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>224</v>
+        <v>348</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>101</v>
@@ -5058,7 +5093,7 @@
         <v>94</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>1</v>
@@ -5091,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>102</v>
@@ -5121,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>94</v>
@@ -5139,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>102</v>
@@ -5148,19 +5183,19 @@
         <v>102</v>
       </c>
       <c r="CL5" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="DC5" s="1" t="s">
         <v>94</v>
@@ -5169,10 +5204,10 @@
         <v>94</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="DF5" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="DG5" s="1" t="s">
         <v>102</v>
@@ -5231,9 +5266,15 @@
       <c r="EE5" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EG5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI5" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="6" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5242,90 +5283,90 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE7"/>
+  <dimension ref="A1:EI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="15" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="26" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -5351,43 +5392,43 @@
         <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>27</v>
@@ -5402,181 +5443,181 @@
         <v>20</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="CE1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BT1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>308</v>
-      </c>
     </row>
-    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5590,37 +5631,37 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>1</v>
@@ -5644,19 +5685,19 @@
         <v>7</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>1</v>
@@ -5698,10 +5739,10 @@
         <v>1</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>1</v>
@@ -5779,13 +5820,13 @@
         <v>96</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>1</v>
@@ -5826,8 +5867,113 @@
       <c r="CE2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CF2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5841,37 +5987,37 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>1</v>
@@ -5895,19 +6041,19 @@
         <v>7</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>1</v>
@@ -5949,10 +6095,10 @@
         <v>1</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>1</v>
@@ -6030,13 +6176,13 @@
         <v>96</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>1</v>
@@ -6077,8 +6223,113 @@
       <c r="CE3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CF3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="ED3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -6092,28 +6343,28 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>94</v>
@@ -6146,19 +6397,19 @@
         <v>7</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>1</v>
@@ -6200,10 +6451,10 @@
         <v>1</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>1</v>
@@ -6281,13 +6532,13 @@
         <v>96</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="BS4" s="1" t="s">
         <v>1</v>
@@ -6328,8 +6579,113 @@
       <c r="CE4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CF4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DE4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DG4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DM4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DN4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DS4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DT4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DW4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DX4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DY4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="ED4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="EG4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI4" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -6343,28 +6699,28 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>96</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>94</v>
@@ -6397,19 +6753,19 @@
         <v>7</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>1</v>
@@ -6451,10 +6807,10 @@
         <v>1</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>1</v>
@@ -6532,13 +6888,13 @@
         <v>96</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="BS5" s="1" t="s">
         <v>1</v>
@@ -6579,9 +6935,114 @@
       <c r="CE5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CF5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CR5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CT5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CV5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DC5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DD5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DE5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DF5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DG5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DJ5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DK5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DL5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DM5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DN5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DO5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DP5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DQ5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DR5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DS5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DT5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DU5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DV5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DW5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DX5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DY5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="ED5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="EE5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="EG5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI5" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6590,142 +7051,142 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EE8"/>
+  <dimension ref="A1:EI7"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="107" max="108" width="15" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="15" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="15" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="15" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -7132,21 +7593,21 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -7155,10 +7616,10 @@
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>4</v>
@@ -7167,19 +7628,19 @@
         <v>5</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>2</v>
@@ -7194,7 +7655,7 @@
         <v>96</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>8</v>
+        <v>342</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>94</v>
@@ -7203,7 +7664,7 @@
         <v>94</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>9</v>
+        <v>343</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>6</v>
@@ -7248,25 +7709,25 @@
         <v>94</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>224</v>
+        <v>344</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>101</v>
@@ -7275,7 +7736,7 @@
         <v>94</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>1</v>
@@ -7308,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>102</v>
@@ -7338,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>94</v>
@@ -7356,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>102</v>
@@ -7365,19 +7826,19 @@
         <v>102</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>94</v>
@@ -7386,10 +7847,10 @@
         <v>94</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="DG2" s="1" t="s">
         <v>102</v>
@@ -7448,22 +7909,28 @@
       <c r="EE2" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EG2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="3" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>346</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -7472,10 +7939,10 @@
         <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>12</v>
@@ -7484,19 +7951,19 @@
         <v>5</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>2</v>
@@ -7511,7 +7978,7 @@
         <v>96</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>8</v>
+        <v>342</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>94</v>
@@ -7520,7 +7987,7 @@
         <v>94</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>13</v>
@@ -7565,25 +8032,25 @@
         <v>94</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>224</v>
+        <v>348</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>101</v>
@@ -7592,7 +8059,7 @@
         <v>94</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>1</v>
@@ -7625,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>102</v>
@@ -7655,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>94</v>
@@ -7673,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>234</v>
+        <v>349</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>102</v>
@@ -7682,19 +8149,19 @@
         <v>102</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="DC3" s="1" t="s">
         <v>94</v>
@@ -7703,10 +8170,10 @@
         <v>94</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="DG3" s="1" t="s">
         <v>102</v>
@@ -7765,22 +8232,28 @@
       <c r="EE3" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EG3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="4" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
@@ -7789,10 +8262,10 @@
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>4</v>
@@ -7801,19 +8274,19 @@
         <v>15</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>2</v>
@@ -7828,7 +8301,7 @@
         <v>105</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>8</v>
+        <v>342</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>94</v>
@@ -7837,7 +8310,7 @@
         <v>94</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>9</v>
+        <v>343</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>16</v>
@@ -7882,25 +8355,25 @@
         <v>94</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>224</v>
+        <v>344</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>101</v>
@@ -7909,7 +8382,7 @@
         <v>94</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>1</v>
@@ -7942,7 +8415,7 @@
         <v>1</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>102</v>
@@ -7972,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>94</v>
@@ -7990,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>237</v>
+        <v>351</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>102</v>
@@ -7999,19 +8472,19 @@
         <v>102</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="DC4" s="1" t="s">
         <v>94</v>
@@ -8020,10 +8493,10 @@
         <v>94</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="DF4" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="DG4" s="1" t="s">
         <v>102</v>
@@ -8082,22 +8555,28 @@
       <c r="EE4" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EG4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI4" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="5" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>238</v>
+        <v>352</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
@@ -8106,10 +8585,10 @@
         <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>12</v>
@@ -8118,19 +8597,19 @@
         <v>15</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>2</v>
@@ -8145,7 +8624,7 @@
         <v>105</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>8</v>
+        <v>342</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>94</v>
@@ -8154,7 +8633,7 @@
         <v>94</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>18</v>
@@ -8199,25 +8678,25 @@
         <v>94</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>224</v>
+        <v>348</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>101</v>
@@ -8226,7 +8705,7 @@
         <v>94</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>1</v>
@@ -8259,7 +8738,7 @@
         <v>1</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>102</v>
@@ -8289,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>94</v>
@@ -8307,7 +8786,7 @@
         <v>1</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>102</v>
@@ -8316,19 +8795,19 @@
         <v>102</v>
       </c>
       <c r="CL5" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="DC5" s="1" t="s">
         <v>94</v>
@@ -8337,10 +8816,10 @@
         <v>94</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="DF5" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="DG5" s="1" t="s">
         <v>102</v>
@@ -8399,10 +8878,15 @@
       <c r="EE5" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EG5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI5" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="6" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8412,15 +8896,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -8434,78 +8921,78 @@
         <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -8517,13 +9004,31 @@
         <v>96</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>349</v>
+        <v>360</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Q2" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>96</v>
@@ -8535,30 +9040,30 @@
         <v>96</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -8570,13 +9075,31 @@
         <v>96</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>349</v>
+        <v>364</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="P3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Q3" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>96</v>
@@ -8588,29 +9111,24 @@
         <v>96</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
